--- a/src/main/resources/Data/data.xlsx
+++ b/src/main/resources/Data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.cabral\IdeaProjects\TrabajoPOM-Cabral\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4C4EEF-2B97-4DAA-8DCC-F3066E20B778}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF7420A-D498-4739-A7A6-BF9CA23A770E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="28455" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -558,7 +558,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
